--- a/Desarrollo/Costos.xlsx
+++ b/Desarrollo/Costos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Documents\My_files\School\Desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332E159-C8F3-4023-8697-8B613D2598B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1827CAF-E891-405D-81E4-4C7BAD33F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>Insumo</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Costos Variables</t>
   </si>
   <si>
-    <t>Produccion Estimada</t>
-  </si>
-  <si>
     <t>Costo Total</t>
   </si>
   <si>
@@ -147,15 +144,22 @@
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Produccion Estimada Mensual</t>
+  </si>
+  <si>
+    <t>1 (una persona)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0&quot; por producto&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -280,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,113 +299,92 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,6 +398,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -428,6 +418,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -440,37 +445,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -505,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34B26569-B1A5-4E53-AF5C-98CE79FF8A2C}" name="CostoFijo" displayName="CostoFijo" ref="A1:E6" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34B26569-B1A5-4E53-AF5C-98CE79FF8A2C}" name="CostoFijo" displayName="CostoFijo" ref="A1:E6" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:E5" xr:uid="{34B26569-B1A5-4E53-AF5C-98CE79FF8A2C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -517,11 +500,11 @@
     <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{99CE7AE1-5C89-48A6-B8BD-BFAD4BA188B4}" name="Insumo" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AB418D22-936B-43D8-ABF1-35DAE9BC3DB1}" name="Unidad de medida" dataDxfId="13" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B5C2C2CD-1D59-4CB7-A2D0-F2F9A1F7EFE6}" name="Precio" dataDxfId="12" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EB19A27A-F6F7-4095-B647-E20F685319C3}" name="Cant Requerida" dataDxfId="11" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{43E622DE-75CC-40C5-A659-CACCCDF055A4}" name="Costo" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{99CE7AE1-5C89-48A6-B8BD-BFAD4BA188B4}" name="Insumo" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{AB418D22-936B-43D8-ABF1-35DAE9BC3DB1}" name="Unidad de medida" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{B5C2C2CD-1D59-4CB7-A2D0-F2F9A1F7EFE6}" name="Precio" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{EB19A27A-F6F7-4095-B647-E20F685319C3}" name="Cant Requerida" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{43E622DE-75CC-40C5-A659-CACCCDF055A4}" name="Costo" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>CostoFijo[[#This Row],[Cant Requerida]]*CostoFijo[[#This Row],[Precio]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -530,7 +513,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF6D8512-A0D6-4145-90BA-334F48DD6DA4}" name="CostoVariable" displayName="CostoVariable" ref="A1:E10" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF6D8512-A0D6-4145-90BA-334F48DD6DA4}" name="CostoVariable" displayName="CostoVariable" ref="A1:E10" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E9" xr:uid="{FF6D8512-A0D6-4145-90BA-334F48DD6DA4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -542,11 +525,11 @@
     <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4B2D4868-64CD-404C-BC86-CFEAD5801FE6}" name="Insumo" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0CBED79C-76A2-4256-9724-4382EA89E966}" name="Unidad de medida" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{64C243F9-806F-4435-B4B4-3A0CCF3B242A}" name="Precio" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{41D955FA-CCCB-4119-94D8-3ABB198A6727}" name="Cant Requerida" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{39D550A4-88DE-44BA-A9E1-4CA1B1FF13C1}" name="Costo" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{4B2D4868-64CD-404C-BC86-CFEAD5801FE6}" name="Insumo" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0CBED79C-76A2-4256-9724-4382EA89E966}" name="Unidad de medida" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{64C243F9-806F-4435-B4B4-3A0CCF3B242A}" name="Precio" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{41D955FA-CCCB-4119-94D8-3ABB198A6727}" name="Cant Requerida" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{39D550A4-88DE-44BA-A9E1-4CA1B1FF13C1}" name="Costo" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>CostoVariable[[#This Row],[Cant Requerida]]*CostoVariable[[#This Row],[Precio]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -819,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843ED923-E1CA-4584-B696-4BD91FA6D49A}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,343 +811,344 @@
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="19">
         <v>500000</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="35">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
         <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="21">
         <v>15000</v>
       </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="36">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
         <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="19">
         <v>1200000</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35">
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
         <v>1200000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="21">
         <v>37085.74</v>
       </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="22">
         <v>37085.74</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="20">
         <v>1752085.74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="21">
         <v>20000</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
         <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="19">
         <v>3000</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="20">
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="21">
         <v>5443.69</v>
       </c>
-      <c r="D12" s="22">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
         <v>5443.69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="19">
         <v>19025</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="35">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
         <v>19025</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="21">
         <v>2823</v>
       </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
         <v>2823</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="19">
         <v>4053</v>
       </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
         <v>4053</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="21">
         <v>8000</v>
       </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="19">
         <v>131025.27</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
         <v>131025.27</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="37">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28">
         <v>220369.96000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="A21" s="30">
         <v>1752085.74</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="31">
         <v>220369.96000000002</v>
       </c>
       <c r="C21" s="32">
         <v>10</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="31">
         <v>3955785.34</v>
       </c>
-      <c r="E21" s="40">
-        <v>4746942.4079999998</v>
+      <c r="E21" s="33">
+        <f>D21/0.8</f>
+        <v>4944731.6749999998</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1181,7 +1165,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1173,7 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1203,7 +1187,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1220,7 +1204,7 @@
       <c r="C2" s="4">
         <v>500000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="4">
@@ -1238,7 +1222,7 @@
       <c r="C3" s="4">
         <v>15000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="4">
@@ -1256,7 +1240,7 @@
       <c r="C4" s="4">
         <v>1200000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="4">
@@ -1274,7 +1258,7 @@
       <c r="C5" s="4">
         <v>37085.74</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="4">
@@ -1288,7 +1272,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4">
         <f>SUBTOTAL(109,CostoFijo[Costo])</f>
         <v>1752085.74</v>
@@ -1485,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4">
         <f>SUBTOTAL(109,CostoVariable[Costo])</f>
@@ -1504,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1DFF7-1AA1-4281-9FA6-C06A1468E964}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1515,41 +1499,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
